--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -540,10 +540,10 @@
         <v>10.58654</v>
       </c>
       <c r="I2">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J2">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N2">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q2">
-        <v>2.576593275077777</v>
+        <v>1.68806614916</v>
       </c>
       <c r="R2">
-        <v>23.1893394757</v>
+        <v>15.19259534244</v>
       </c>
       <c r="S2">
-        <v>0.7232021456617609</v>
+        <v>0.573713762019003</v>
       </c>
       <c r="T2">
-        <v>0.723202145661761</v>
+        <v>0.5737137620190031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>10.58654</v>
       </c>
       <c r="I3">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J3">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.466686</v>
       </c>
       <c r="O3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q3">
         <v>0.54895444516</v>
@@ -632,10 +632,10 @@
         <v>4.94059000644</v>
       </c>
       <c r="S3">
-        <v>0.1540813742123461</v>
+        <v>0.1865701294149622</v>
       </c>
       <c r="T3">
-        <v>0.1540813742123461</v>
+        <v>0.1865701294149622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>10.58654</v>
       </c>
       <c r="I4">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J4">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N4">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q4">
-        <v>0.3417746810777778</v>
+        <v>0.3466703676866666</v>
       </c>
       <c r="R4">
-        <v>3.0759721297</v>
+        <v>3.12003330918</v>
       </c>
       <c r="S4">
-        <v>0.09592984080145583</v>
+        <v>0.1178209520551065</v>
       </c>
       <c r="T4">
-        <v>0.09592984080145583</v>
+        <v>0.1178209520551065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H5">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I5">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J5">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N5">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q5">
-        <v>0.0709179276961111</v>
+        <v>0.234330887682</v>
       </c>
       <c r="R5">
-        <v>0.638261349265</v>
+        <v>2.108977989138</v>
       </c>
       <c r="S5">
-        <v>0.01990535253343971</v>
+        <v>0.07964075056904076</v>
       </c>
       <c r="T5">
-        <v>0.01990535253343972</v>
+        <v>0.07964075056904076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H6">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I6">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J6">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.466686</v>
       </c>
       <c r="O6">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P6">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q6">
-        <v>0.015109374082</v>
+        <v>0.07620375688200001</v>
       </c>
       <c r="R6">
-        <v>0.135984366738</v>
+        <v>0.685833811938</v>
       </c>
       <c r="S6">
-        <v>0.004240922252418264</v>
+        <v>0.02589895192348288</v>
       </c>
       <c r="T6">
-        <v>0.004240922252418264</v>
+        <v>0.02589895192348288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H7">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N7">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O7">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P7">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q7">
-        <v>0.009406976396111112</v>
+        <v>0.04812345477900001</v>
       </c>
       <c r="R7">
-        <v>0.08466278756500001</v>
+        <v>0.433111093011</v>
       </c>
       <c r="S7">
-        <v>0.002640364538579234</v>
+        <v>0.01635545401840446</v>
       </c>
       <c r="T7">
-        <v>0.002640364538579234</v>
+        <v>0.01635545401840446</v>
       </c>
     </row>
   </sheetData>
